--- a/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="12360"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000}]</t>
   </si>
   <si>
-    <t>[1]</t>
+    <t>[1,17]</t>
   </si>
   <si>
     <t>袁泽宇</t>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000}]</t>
+    <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:36,v:7000}]</t>
   </si>
   <si>
     <t>[1,17]</t>
@@ -101,7 +101,7 @@
     <t>袁泽宇</t>
   </si>
   <si>
-    <t>[{k:0,v:600},{k:3,v:300},{k:6,v:300},{k:9,v:5000}]</t>
+    <t>[{k:0,v:600},{k:3,v:300},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:24,v:5000}]</t>
   </si>
   <si>
     <t>[3]</t>
@@ -1052,8 +1052,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1061,6 +1061,7 @@
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="37.05" customWidth="1"/>
+    <col min="5" max="5" width="74.05" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>字段描述</t>
   </si>
   <si>
-    <t>每种Buff的唯一ID</t>
+    <t>怪物的唯一ID</t>
   </si>
   <si>
     <t>角色的名称</t>
@@ -92,7 +92,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:36,v:7000}]</t>
+    <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:36,v:5000},{k:42,v:5000}]</t>
   </si>
   <si>
     <t>[1,17]</t>
@@ -1052,14 +1052,14 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="3" width="11.125" customWidth="1"/>
+    <col min="2" max="3" width="23.9666666666667" customWidth="1"/>
     <col min="4" max="4" width="37.05" customWidth="1"/>
     <col min="5" max="5" width="74.05" customWidth="1"/>
   </cols>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Key</t>
   </si>
@@ -89,22 +89,28 @@
     <t>杨佳欣</t>
   </si>
   <si>
+    <t>[{k:1,v:1}]</t>
+  </si>
+  <si>
+    <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:36,v:5000},{k:42,v:5000}]</t>
+  </si>
+  <si>
+    <t>[1,17]</t>
+  </si>
+  <si>
+    <t>袁泽宇</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:36,v:5000},{k:42,v:5000}]</t>
-  </si>
-  <si>
-    <t>[1,17]</t>
-  </si>
-  <si>
-    <t>袁泽宇</t>
-  </si>
-  <si>
     <t>[{k:0,v:600},{k:3,v:300},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:24,v:5000}]</t>
   </si>
   <si>
     <t>[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -1050,13 +1056,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="3" width="23.9666666666667" customWidth="1"/>
@@ -1175,13 +1181,18 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
@@ -95,7 +95,7 @@
     <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:36,v:5000},{k:42,v:5000}]</t>
   </si>
   <si>
-    <t>[1,17]</t>
+    <t>[1,17,19,20]</t>
   </si>
   <si>
     <t>袁泽宇</t>
@@ -107,7 +107,7 @@
     <t>[{k:0,v:600},{k:3,v:300},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:24,v:5000}]</t>
   </si>
   <si>
-    <t>[3]</t>
+    <t>[3,19,20]</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Key</t>
   </si>
@@ -95,7 +95,7 @@
     <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:36,v:5000},{k:42,v:5000}]</t>
   </si>
   <si>
-    <t>[1,17,19,20]</t>
+    <t>[1]</t>
   </si>
   <si>
     <t>袁泽宇</t>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>[{k:0,v:600},{k:3,v:300},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:24,v:5000}]</t>
-  </si>
-  <si>
-    <t>[3,19,20]</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -1187,12 +1184,12 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>[{k:1,v:1}]</t>
   </si>
   <si>
-    <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:36,v:5000},{k:42,v:5000}]</t>
+    <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:3000},{k:12,v:5000},{k:18,v:5000},{k:36,v:5000},{k:42,v:5000}]</t>
   </si>
   <si>
     <t>[1]</t>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Key</t>
   </si>
@@ -95,16 +95,19 @@
     <t>[{k:0,v:800},{k:3,v:20},{k:6,v:300},{k:9,v:3000},{k:12,v:5000},{k:18,v:5000},{k:36,v:5000},{k:42,v:5000}]</t>
   </si>
   <si>
+    <t>[1,16]</t>
+  </si>
+  <si>
+    <t>袁泽宇</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[{k:0,v:600},{k:3,v:300},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:24,v:5000}]</t>
+  </si>
+  <si>
     <t>[1]</t>
-  </si>
-  <si>
-    <t>袁泽宇</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[{k:0,v:600},{k:3,v:300},{k:6,v:300},{k:9,v:5000},{k:12,v:5000},{k:18,v:5000},{k:24,v:5000}]</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -1056,7 +1059,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1184,12 +1187,12 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
